--- a/db_doc.xlsx
+++ b/db_doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\loulou-resume-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384688B-0610-45BE-8706-ABBED4B16664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAFFBC-96CD-4A6D-918C-5D36C321A9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>working_ability_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每個工作能力的id，初始 root id 為0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>working_ability_category_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,30 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigInteger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigIncrements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個工作能力的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始 root id 為0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,59 +480,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB954EE-0EC2-4E13-9951-06BD40AE2937}">
-  <dimension ref="A5:B26"/>
+  <dimension ref="A5:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -532,17 +573,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -552,12 +593,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/db_doc.xlsx
+++ b/db_doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\loulou-resume-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAFFBC-96CD-4A6D-918C-5D36C321A9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA822E-AFE1-4751-BC68-AA99DF9A713F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
   </bookViews>
@@ -483,12 +483,12 @@
   <dimension ref="A5:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/db_doc.xlsx
+++ b/db_doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\loulou-resume-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA822E-AFE1-4751-BC68-AA99DF9A713F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE3CF0-B5A8-4ADB-9EFA-01F26569614A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>working_ability_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,46 @@
   </si>
   <si>
     <t>初始 root id 為0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autobiography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履歷中每個章節的初始唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳各章節標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳各章節內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章節排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該章節是否顯示於前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自傳中各章節的標題文字、內容html 與章節排序等…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,16 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB954EE-0EC2-4E13-9951-06BD40AE2937}">
-  <dimension ref="A5:C26"/>
+  <dimension ref="A5:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A29" sqref="A29:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,49 +597,117 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/db_doc.xlsx
+++ b/db_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\loulou-resume-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE3CF0-B5A8-4ADB-9EFA-01F26569614A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35779C1D-6E00-4C68-92BB-348140181D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>working_ability_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,76 @@
   </si>
   <si>
     <t>自傳中各章節的標題文字、內容html 與章節排序等…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>作品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio_category</t>
+  </si>
+  <si>
+    <t>portfolio_category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品分類表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品id，唯一值，pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品介紹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品在前後台的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品是否顯示於前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品是否刪除(不在後台顯示，但可由資料庫復原)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個作品分類的id，唯一值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其分類的父分類id，若是根目錄的分類就是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該分類名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該分類在前後台的排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該分類是否顯示於前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該分類是否刪除(不在後台顯示，但可由資料庫復原)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該作品的分類id，若該作品沒有分類其id為0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +246,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,11 +276,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB954EE-0EC2-4E13-9951-06BD40AE2937}">
-  <dimension ref="A5:C36"/>
+  <dimension ref="A5:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -710,6 +790,169 @@
         <v>26</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_doc.xlsx
+++ b/db_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinishWorks\loulou-resume-back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35779C1D-6E00-4C68-92BB-348140181D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EEECDA-AD5D-41CC-93FB-768F75C0CA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAB8310-6AB5-4FBE-B977-DDD0303C04C9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A5:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
